--- a/MomentOfInertia.xlsx
+++ b/MomentOfInertia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f783a13eabc91212/Desktop/03 Academics/03 Graduate Education/ROB599/ROB599_AV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{11CB519B-8A14-4943-BFD9-23054286179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60CCA0CC-62C5-4D72-AFBC-CDB49592B89D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{11CB519B-8A14-4943-BFD9-23054286179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF9B4BCB-E86F-422D-8234-F07F964D6574}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1179AAAD-D673-4178-9E01-33A6F938C81B}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12216" xr2:uid="{1179AAAD-D673-4178-9E01-33A6F938C81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1327,6 +1327,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
